--- a/Labs/Use Case UML Workbook.xlsx
+++ b/Labs/Use Case UML Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmwie\Documents\School\CSUSM\Sofware Engineering\HTFYDragon\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7EA9EF-6331-4987-B6B9-06C83A86EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0A28FB-00B0-4910-9F8E-624C82461013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11436" yWindow="2172" windowWidth="23040" windowHeight="12204" tabRatio="867" activeTab="4" xr2:uid="{DC8A9254-D75E-4F5B-B376-0215D543D31B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="867" activeTab="3" xr2:uid="{DC8A9254-D75E-4F5B-B376-0215D543D31B}"/>
   </bookViews>
   <sheets>
     <sheet name="100 - Login" sheetId="2" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>No changes have been made to a profile</t>
   </si>
   <si>
-    <t>A new profile has been created for a users dragon</t>
-  </si>
-  <si>
     <t>user clicks &lt;&lt;edit profile&gt;&gt; </t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>User selects valid bearded dragon profile</t>
   </si>
   <si>
-    <t>Subfunction</t>
-  </si>
-  <si>
     <t>Prompt modify menu</t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>system prompts user to reinstall application</t>
+  </si>
+  <si>
+    <t>The selected profile has been updated</t>
+  </si>
+  <si>
+    <t>Primary</t>
   </si>
 </sst>
 </file>
@@ -759,25 +759,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -790,34 +778,40 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -828,14 +822,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1169,199 +1169,199 @@
   <sheetData>
     <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="25"/>
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="25"/>
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27"/>
-      <c r="C21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="27"/>
-      <c r="C22" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25"/>
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="26"/>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28"/>
-      <c r="C24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1375,12 +1375,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1391,7 +1391,7 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,299 +1403,299 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="8">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
+      <c r="C22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21"/>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
+    </row>
+    <row r="24" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="21"/>
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="15"/>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="21"/>
+      <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21"/>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
+    <row r="27" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21"/>
+      <c r="C27" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
-      <c r="C28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="29" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21"/>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15"/>
-      <c r="C29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    <row r="30" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21"/>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15"/>
-      <c r="C30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="31" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="21"/>
+      <c r="C31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="32" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="21"/>
+      <c r="C32" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15"/>
-      <c r="C32" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21"/>
+      <c r="C33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="15"/>
-      <c r="C33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="34" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="31"/>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16"/>
-      <c r="C34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -1718,15 +1718,15 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1749,217 +1749,217 @@
   <sheetData>
     <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
+      <c r="C22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25"/>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="12">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="25"/>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27"/>
-      <c r="C24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="3" t="s">
+    <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25"/>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27"/>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="26"/>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1973,12 +1973,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7555586-8525-47F2-8133-99CC921E5035}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2001,217 +2001,217 @@
   <sheetData>
     <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
+      <c r="C22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25"/>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="29">
-        <v>5</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="12">
-        <v>6</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27"/>
-      <c r="C24" s="12" t="s">
-        <v>74</v>
+      <c r="B24" s="25"/>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25"/>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27"/>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="26"/>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2225,12 +2225,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88BE331-5328-4493-BDB8-F61D01B8B5AE}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2254,226 +2254,226 @@
   <sheetData>
     <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
-      <c r="C23" s="12" t="s">
-        <v>32</v>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32"/>
-      <c r="C24" s="12" t="s">
-        <v>34</v>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="32"/>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32"/>
-      <c r="C27" s="12" t="s">
-        <v>34</v>
+      <c r="C27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2487,12 +2487,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2503,7 +2503,7 @@
   <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B29"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2515,244 +2515,244 @@
   <sheetData>
     <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="12">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32"/>
-      <c r="C24" s="12" t="s">
-        <v>121</v>
+      <c r="C24" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="32"/>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
-      <c r="C26" s="12" t="s">
-        <v>57</v>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32"/>
-      <c r="C27" s="12" t="s">
-        <v>34</v>
+      <c r="C27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="32"/>
-      <c r="C28" s="12" t="s">
-        <v>74</v>
+      <c r="C28" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32"/>
-      <c r="C29" s="12" t="s">
-        <v>34</v>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2766,12 +2766,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labs/Use Case UML Workbook.xlsx
+++ b/Labs/Use Case UML Workbook.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmwie\Documents\School\CSUSM\Sofware Engineering\HTFYDragon\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0A28FB-00B0-4910-9F8E-624C82461013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F4BC2-C579-4BF4-B0E1-E75ED02B0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="867" activeTab="3" xr2:uid="{DC8A9254-D75E-4F5B-B376-0215D543D31B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="867" activeTab="6" xr2:uid="{DC8A9254-D75E-4F5B-B376-0215D543D31B}"/>
   </bookViews>
   <sheets>
-    <sheet name="100 - Login" sheetId="2" r:id="rId1"/>
-    <sheet name="200 - Edit" sheetId="1" r:id="rId2"/>
-    <sheet name="201 - New" sheetId="3" r:id="rId3"/>
-    <sheet name="300-Menu" sheetId="4" r:id="rId4"/>
-    <sheet name="400-Help" sheetId="5" r:id="rId5"/>
-    <sheet name="500-Mod_Menu" sheetId="6" r:id="rId6"/>
+    <sheet name="001 - Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="100 - Login" sheetId="2" r:id="rId2"/>
+    <sheet name="200 - Edit" sheetId="1" r:id="rId3"/>
+    <sheet name="201 - New" sheetId="3" r:id="rId4"/>
+    <sheet name="300-Menu" sheetId="4" r:id="rId5"/>
+    <sheet name="400-Help" sheetId="5" r:id="rId6"/>
+    <sheet name="500-Mod_Menu" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
   <si>
     <t>Project Name:</t>
   </si>
@@ -175,15 +176,9 @@
     <t>HTFYD_UC-100</t>
   </si>
   <si>
-    <t>Profile Selection</t>
-  </si>
-  <si>
     <t>User views existing profiles or new/edit profile button</t>
   </si>
   <si>
-    <t>subfunction</t>
-  </si>
-  <si>
     <t>Install HTFYD program</t>
   </si>
   <si>
@@ -409,7 +404,52 @@
     <t>The selected profile has been updated</t>
   </si>
   <si>
-    <t>Primary</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Primary function</t>
+  </si>
+  <si>
+    <t>Primary Function</t>
+  </si>
+  <si>
+    <t>user selects restricted items as they are fed to the pet</t>
+  </si>
+  <si>
+    <t>Summary of Use</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>HTFYD_UC-001</t>
+  </si>
+  <si>
+    <t>system loads daily menu</t>
+  </si>
+  <si>
+    <t>user selects profile</t>
+  </si>
+  <si>
+    <t>user activates program</t>
+  </si>
+  <si>
+    <t>system loads login page</t>
+  </si>
+  <si>
+    <t>user modifies available menu</t>
+  </si>
+  <si>
+    <t>system creates new menu based on changes</t>
+  </si>
+  <si>
+    <t>user feeds pet acordingly and exits program</t>
+  </si>
+  <si>
+    <t>Permits tracking of healthy menu for users bearded dragon</t>
+  </si>
+  <si>
+    <t>Provides generic menu</t>
   </si>
 </sst>
 </file>
@@ -795,15 +835,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,6 +853,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -833,6 +870,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,11 +1193,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C0F9ED-0642-4D6F-99B1-4D65628A2B90}">
+  <dimension ref="B2:D22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22"/>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22"/>
+      <c r="C21" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B02A9C-7391-493A-A8C2-2CEE31F44105}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1172,110 +1426,110 @@
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1284,52 +1538,52 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1338,16 +1592,16 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="25"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
@@ -1356,7 +1610,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="26"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1366,6 +1620,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B20:B24"/>
@@ -1375,23 +1635,17 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C45E732-199F-42C8-AEC9-EB1540DABEE0}">
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,110 +1660,110 @@
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="19"/>
+      <c r="C7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1772,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="8">
         <v>1</v>
       </c>
@@ -1527,7 +1781,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1536,7 +1790,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1545,7 +1799,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1554,7 +1808,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1563,7 +1817,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1572,7 +1826,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="9">
         <v>7</v>
       </c>
@@ -1584,13 +1838,13 @@
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1853,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="21"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1608,7 +1862,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="21"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1871,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1880,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="21"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="8" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1890,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="8" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1899,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1908,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1917,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1926,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="8" t="s">
         <v>42</v>
       </c>
@@ -1681,7 +1935,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="21"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
@@ -1712,12 +1966,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B21"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -1727,18 +1975,24 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB81131-AF31-4B2E-A15E-1928312A3890}">
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1752,110 +2006,110 @@
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1864,70 +2118,70 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="8">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1936,34 +2190,40 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="25"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:D22"/>
@@ -1973,23 +2233,17 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7555586-8525-47F2-8133-99CC921E5035}">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2004,110 +2258,110 @@
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
@@ -2116,132 +2370,141 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="15">
         <v>5</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
-      <c r="C21" s="8">
+      <c r="B21" s="18"/>
+      <c r="C21" s="15">
         <v>6</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>85</v>
+      <c r="D21" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="25"/>
-      <c r="C24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88BE331-5328-4493-BDB8-F61D01B8B5AE}">
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2257,110 +2520,110 @@
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
@@ -2369,58 +2632,58 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32"/>
@@ -2437,7 +2700,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2446,16 +2709,16 @@
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="32"/>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2464,7 +2727,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2473,11 +2736,17 @@
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:D21"/>
@@ -2487,23 +2756,17 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8277C77D-3AF5-464E-9A23-0B9F5A4F74A8}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2518,110 +2781,110 @@
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
@@ -2630,67 +2893,67 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="8">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
@@ -2704,10 +2967,10 @@
     <row r="24" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32"/>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2716,16 +2979,16 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2734,16 +2997,16 @@
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="32"/>
       <c r="C28" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2752,11 +3015,17 @@
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="C22:D22"/>
@@ -2766,12 +3035,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
